--- a/data/trans_camb/P19C09-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Edad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4159367582197972</v>
+        <v>-0.4240634791390677</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4998098975761854</v>
+        <v>0.3417665022641679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.01222629637936279</v>
+        <v>-0.1296786083380143</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.9048955335902723</v>
+        <v>-0.8912028534988462</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.270142750978407</v>
+        <v>0.1736006769943558</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3252738325566985</v>
+        <v>0.4133295055930268</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.083606863299154</v>
+        <v>3.215245064927592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.856502993246676</v>
+        <v>4.681265834631279</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.244001595153655</v>
+        <v>4.02997188631702</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.772547004862604</v>
+        <v>2.750236597868319</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>3.148136075211225</v>
+        <v>3.017542646588918</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.214937910573284</v>
+        <v>3.23077606630869</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5077847347799432</v>
+        <v>-0.4923777122188244</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.07777273952291999</v>
+        <v>-0.1506990345765701</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2366800400927486</v>
+        <v>-0.25890338443865</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5233052545754443</v>
+        <v>-0.530056235017928</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.0243975670294392</v>
+        <v>-0.005507381366645582</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06826074804344094</v>
+        <v>0.1367008942064364</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>7.5316011669715</v>
+        <v>9.201423173151976</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>12.99398092609406</v>
+        <v>12.16101864017609</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>9.188211273660871</v>
+        <v>7.000194601738629</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>5.703271017464258</v>
+        <v>5.416374956367763</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.861984059427701</v>
+        <v>5.180233944025288</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>4.6928357850429</v>
+        <v>5.276986227977347</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.096279425538924</v>
+        <v>-2.141199669883094</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.9488017481401976</v>
+        <v>-1.115583698107456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.752319183645877</v>
+        <v>-0.7337724638718396</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.8452713400036344</v>
+        <v>-1.201045952944328</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.7630356099387338</v>
+        <v>-0.9446789047573542</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.5510543593113445</v>
+        <v>-0.5114498139107528</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.362836576806949</v>
+        <v>1.367642400621142</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.073896989544193</v>
+        <v>3.205187696703097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.202882384886022</v>
+        <v>3.287317158127482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.070239658204666</v>
+        <v>3.130181887991657</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.796404145432063</v>
+        <v>1.872940413843345</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.347160393730969</v>
+        <v>2.401714778294075</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7015705902168168</v>
+        <v>-0.6915322827166037</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3543642063328392</v>
+        <v>-0.4018867730644123</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2976778520079276</v>
+        <v>-0.2914887718999465</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3175625186281452</v>
+        <v>-0.3976732044782549</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2880125877398095</v>
+        <v>-0.328361504195706</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.211492357716608</v>
+        <v>-0.2214601767845752</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.231602513490841</v>
+        <v>1.219638829365727</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.762781251829022</v>
+        <v>2.73226622423968</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.052827274030285</v>
+        <v>2.408596588782167</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.196577583756104</v>
+        <v>2.135132645421614</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.199113318372655</v>
+        <v>1.21503614529269</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.515309551873859</v>
+        <v>1.544256225824299</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.083499123540912</v>
+        <v>-3.051266506189299</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.075513286387052</v>
+        <v>-1.260630005738005</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.9097610817353864</v>
+        <v>-1.013607525720319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.367734520152585</v>
+        <v>-1.176766099368618</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.382374981093555</v>
+        <v>-1.308841497227887</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6664467514521685</v>
+        <v>-0.6410918593870398</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3988843421911499</v>
+        <v>0.4256475378009001</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.233597653766134</v>
+        <v>3.052681410570227</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.951599125059643</v>
+        <v>2.552581861447894</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.988150986342268</v>
+        <v>2.094630219242934</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.133330290309463</v>
+        <v>1.189574491560594</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.031257458193539</v>
+        <v>1.937714844888806</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.842180852027609</v>
+        <v>-0.8594201063587671</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3665757352551217</v>
+        <v>-0.4092984390127817</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4264799397222445</v>
+        <v>-0.4186266826193094</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5603578198785124</v>
+        <v>-0.5194956549150284</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5267298452777259</v>
+        <v>-0.5094660495253439</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2609653827624375</v>
+        <v>-0.2331812180293566</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5580237348526091</v>
+        <v>0.5086042458926082</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.183877333942832</v>
+        <v>1.885825335915013</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.056371218065403</v>
+        <v>2.492941270450294</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.986012506640787</v>
+        <v>2.079267092790077</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7604953799130122</v>
+        <v>0.81600500953579</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.327894114641092</v>
+        <v>1.324122614723638</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.412723230004469</v>
+        <v>-2.321498731620562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.641933497553656</v>
+        <v>-1.715327868208338</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.534876873371186</v>
+        <v>-3.981727061601569</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.051685024066243</v>
+        <v>-3.287419727930738</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.448421236660991</v>
+        <v>-2.430439160740328</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.818993758531426</v>
+        <v>-1.868174638595584</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.058227493842085</v>
+        <v>1.00383774220194</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.971999365522268</v>
+        <v>2.247700899365588</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5259917980832569</v>
+        <v>0.3507590574802834</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.354883080260374</v>
+        <v>1.142350486306999</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4948228670412911</v>
+        <v>0.3853785371926075</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.273353289685572</v>
+        <v>1.085710625624007</v>
       </c>
     </row>
     <row r="25">
@@ -1192,21 +1192,23 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
+      <c r="C26" s="6" t="n">
+        <v>-0.8318118062243958</v>
+      </c>
       <c r="D26" s="6" t="n">
-        <v>-0.699668922053296</v>
+        <v>-0.6592389888837342</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.802917969161282</v>
+        <v>-0.8216305129556988</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.6698218960123268</v>
+        <v>-0.6701406828649523</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7112971449136961</v>
+        <v>-0.7157202755678715</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.5324078481602811</v>
+        <v>-0.5437737766956834</v>
       </c>
     </row>
     <row r="27">
@@ -1216,21 +1218,23 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr"/>
+      <c r="C27" s="6" t="n">
+        <v>1.775794676970366</v>
+      </c>
       <c r="D27" s="6" t="n">
-        <v>3.257901175764593</v>
+        <v>3.458499800960474</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.4166635820893957</v>
+        <v>0.2278237711291736</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7127470001991204</v>
+        <v>0.5760602141905199</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3887942077065489</v>
+        <v>0.2704875278498082</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8176966352693781</v>
+        <v>0.627612527963767</v>
       </c>
     </row>
     <row r="28">
@@ -1271,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.652585909556142</v>
+        <v>-4.649762009220211</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.645348573953591</v>
+        <v>-4.291791742406946</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-6.440782475976977</v>
+        <v>-6.433686680882346</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.507113100286652</v>
+        <v>-5.301164389922597</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-4.776175540193905</v>
+        <v>-4.726796161282838</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-4.137247166577184</v>
+        <v>-4.186788937535433</v>
       </c>
     </row>
     <row r="30">
@@ -1297,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.5503976138481878</v>
+        <v>0.4659644352767049</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.5858682832840606</v>
+        <v>0.6433830165564385</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.508958366106393</v>
+        <v>-0.6681594461060959</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.279685633485719</v>
+        <v>1.108988160904655</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.8540428626065528</v>
+        <v>-0.6286394425972069</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.002009287430471333</v>
+        <v>0.2150490995573223</v>
       </c>
     </row>
     <row r="31">
@@ -1349,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.8476299542159645</v>
+        <v>-0.8556589747969122</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8255883347585962</v>
+        <v>-0.8427829839946693</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.8354446612024286</v>
+        <v>-0.8410533337400099</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.6943668380109388</v>
+        <v>-0.6838982188634138</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7860829102561533</v>
+        <v>-0.7862187462184628</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.682263566761645</v>
+        <v>-0.6699907696411125</v>
       </c>
     </row>
     <row r="33">
@@ -1375,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.464418687345281</v>
+        <v>0.3689134746357086</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.441092803238455</v>
+        <v>0.4494530281418125</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.01861487060508837</v>
+        <v>-0.04581095665467263</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.4260979489598062</v>
+        <v>0.3198213149068329</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.18718449000511</v>
+        <v>-0.1362570388145448</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.01617889693040044</v>
+        <v>0.1031854633398432</v>
       </c>
     </row>
     <row r="34">
@@ -1431,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-4.098147886488582</v>
+        <v>-3.701920594408271</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-5.903483240382213</v>
+        <v>-5.688565552677869</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.070321365744372</v>
+        <v>-7.432551798182374</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.446691754447043</v>
+        <v>-7.154749768457497</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.86480544077558</v>
+        <v>-4.671989322322665</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.465757432258679</v>
+        <v>-5.441261879891155</v>
       </c>
     </row>
     <row r="36">
@@ -1457,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>3.594407772554575</v>
+        <v>3.753456946229352</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>0.664027151579663</v>
+        <v>0.6713642070000539</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-0.3641348303860948</v>
+        <v>-0.4562180661632249</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>-0.579015740347344</v>
+        <v>-0.6634248467089551</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>0.2390653871228861</v>
+        <v>0.1230956473247997</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-0.9399289512168529</v>
+        <v>-0.9452344351983235</v>
       </c>
     </row>
     <row r="37">
@@ -1509,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.6973556181609473</v>
+        <v>-0.649378395262583</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.8642866884277183</v>
+        <v>-0.8698973320316823</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.851851503237034</v>
+        <v>-0.8611142697999983</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.878276498713455</v>
+        <v>-0.8772806587842844</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.706823334473329</v>
+        <v>-0.7100876288716632</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.8099951324740512</v>
+        <v>-0.8024673939078698</v>
       </c>
     </row>
     <row r="39">
@@ -1535,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.448435402629335</v>
+        <v>1.648794323152681</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.7129771428952142</v>
+        <v>0.7002548664874159</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.01769452585841956</v>
+        <v>0.01710507100648633</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.04035469911205267</v>
+        <v>-0.1083112441303197</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1147254157672713</v>
+        <v>0.04181274767270358</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1922607487494251</v>
+        <v>-0.1972044391753775</v>
       </c>
     </row>
     <row r="40">
@@ -1591,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-14.78785472566424</v>
+        <v>-14.94236381483337</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.93871548388335</v>
+        <v>-9.945931584300705</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-4.481155338917347</v>
+        <v>-4.351352809240701</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-6.707638345337121</v>
+        <v>-6.121969325114885</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.195369773054326</v>
+        <v>-6.932069316437703</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-6.216635373719523</v>
+        <v>-6.290358085244245</v>
       </c>
     </row>
     <row r="42">
@@ -1617,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-4.089792214443172</v>
+        <v>-4.325720131443724</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.507258002207503</v>
+        <v>2.421567107423574</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.57033345766594</v>
+        <v>3.284175583782326</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.776437374461773</v>
+        <v>1.547117265942736</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-0.6368184633046494</v>
+        <v>-0.2941089427413173</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>0.1213739962709574</v>
+        <v>0.6434284507543199</v>
       </c>
     </row>
     <row r="43">
@@ -1672,19 +1676,19 @@
         <v>-1</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.7435412046030296</v>
+        <v>-0.7451745627841402</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.6146975036691406</v>
+        <v>-0.6278777484720609</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.8953108703848015</v>
+        <v>-0.88827587403552</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.7796923195317167</v>
+        <v>-0.7699042786315555</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.7208430882818957</v>
+        <v>-0.7277178548390431</v>
       </c>
     </row>
     <row r="45">
@@ -1695,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.43857864063256</v>
+        <v>-0.4834691436123925</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6245853292065388</v>
+        <v>0.5522433248606369</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.453568898122526</v>
+        <v>1.417331302432814</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.8777492394223326</v>
+        <v>0.9068473504375647</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.03363961393096238</v>
+        <v>-0.006635810638408827</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.09925048389398253</v>
+        <v>0.1960919474223897</v>
       </c>
     </row>
     <row r="46">
@@ -1751,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.795296651592124</v>
+        <v>-1.836996317624155</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.6603390792382192</v>
+        <v>-0.6416008488794585</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-1.320923619117464</v>
+        <v>-1.205589429702413</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.461834868095896</v>
+        <v>-1.337233048016684</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.277647933589086</v>
+        <v>-1.26095611114391</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-0.7208020716653333</v>
+        <v>-0.7893457282470824</v>
       </c>
     </row>
     <row r="48">
@@ -1777,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.1804111760016158</v>
+        <v>-0.1806884462166459</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.17281788815643</v>
+        <v>1.150500435442444</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.572573318605114</v>
+        <v>0.6612588107104418</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>0.4310830083419754</v>
+        <v>0.5493547264536748</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>-0.07623545361004452</v>
+        <v>0.00388283509273588</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.5591762130592201</v>
+        <v>0.5094279176761278</v>
       </c>
     </row>
     <row r="49">
@@ -1829,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.5710143387873463</v>
+        <v>-0.5765913178918565</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2163273399181227</v>
+        <v>-0.2043851311927093</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.3668562575518067</v>
+        <v>-0.3359836605698645</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3850838265228698</v>
+        <v>-0.3801344172100516</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.3921049889152538</v>
+        <v>-0.3827190968505559</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.2278974433919812</v>
+        <v>-0.2448181451480345</v>
       </c>
     </row>
     <row r="51">
@@ -1855,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.05587185342359242</v>
+        <v>-0.07011081726842758</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5627085443691398</v>
+        <v>0.5194663129279942</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2191597637055548</v>
+        <v>0.247476023117888</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1645226853789836</v>
+        <v>0.2099801294657819</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>-0.02218162621164547</v>
+        <v>0.002405770384741044</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.2084077993527829</v>
+        <v>0.1943092303730838</v>
       </c>
     </row>
     <row r="52">
